--- a/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.94438253721418308</v>
+        <v>0.94438254244816233</v>
       </c>
       <c r="C2">
-        <v>0.60619216444236945</v>
+        <v>0.60619217580534757</v>
       </c>
       <c r="D2">
-        <v>10.922400419063399</v>
+        <v>10.922400419357174</v>
       </c>
       <c r="E2">
-        <v>4.4370846906669135</v>
+        <v>4.4370846798424672</v>
       </c>
       <c r="F2">
-        <v>3.5480863884158365</v>
+        <v>3.5480863777083314</v>
       </c>
       <c r="G2">
-        <v>8.3716376529264025</v>
+        <v>8.3716376668781134</v>
       </c>
       <c r="H2">
-        <v>9.5540578940922849</v>
+        <v>9.5540578685787398</v>
       </c>
       <c r="I2">
-        <v>6.6067463093627835E-2</v>
+        <v>6.6067464120525957E-2</v>
       </c>
       <c r="J2">
-        <v>8.4965853163965672</v>
+        <v>8.4965853181810562</v>
       </c>
       <c r="K2">
-        <v>5.5174132387259647</v>
+        <v>5.5174132110283578</v>
       </c>
       <c r="L2">
-        <v>0.63954225662012587</v>
+        <v>0.63954225512846397</v>
       </c>
       <c r="M2">
-        <v>2.3496663211464206</v>
+        <v>2.3496663103307047</v>
       </c>
       <c r="N2">
-        <v>0.16989888748082513</v>
+        <v>0.16989888751231966</v>
       </c>
       <c r="O2">
-        <v>6.7605279596108865</v>
+        <v>6.7605279595350867</v>
       </c>
       <c r="P2">
-        <v>0.66350305897761586</v>
+        <v>0.66350305783359553</v>
       </c>
       <c r="Q2">
-        <v>2.8701319704791781</v>
+        <v>2.8701319699692163</v>
       </c>
       <c r="R2">
-        <v>5.9266321990336097</v>
+        <v>5.9266320298577853</v>
       </c>
       <c r="S2">
-        <v>2.638774453235452</v>
+        <v>2.6387744767390897</v>
       </c>
       <c r="T2">
-        <v>0.78145174882453572</v>
+        <v>0.78145172353426917</v>
       </c>
       <c r="U2">
-        <v>2.0283755356468798</v>
+        <v>2.0283755062483997</v>
       </c>
       <c r="V2">
-        <v>13.619571742326356</v>
+        <v>13.619571741596104</v>
       </c>
       <c r="W2">
-        <v>2.3565411343718297</v>
+        <v>2.356541133634197</v>
       </c>
       <c r="X2">
-        <v>0.29192441330715785</v>
+        <v>0.29192440813110571</v>
       </c>
       <c r="Y2">
-        <v>0.3712200580035438</v>
+        <v>0.37122005794079466</v>
       </c>
       <c r="AA2">
-        <v>2.273864607724764</v>
+        <v>2.2738646068687713</v>
       </c>
       <c r="AB2">
-        <v>0.42049929078372755</v>
+        <v>0.42049928991463909</v>
       </c>
       <c r="AC2">
-        <v>5.0181063167549675</v>
+        <v>5.0181062965191989</v>
       </c>
       <c r="AD2">
-        <v>1.0934442998779905</v>
+        <v>1.0934442974838128</v>
       </c>
       <c r="AE2">
-        <v>1.1268198420142299</v>
+        <v>1.1268198416517281</v>
       </c>
       <c r="AF2">
-        <v>6.4767338372328114</v>
+        <v>6.4767338973456638</v>
       </c>
       <c r="AG2">
-        <v>8.6137274870816452</v>
+        <v>8.613727486823386</v>
       </c>
       <c r="AH2">
-        <v>0.4068180647198742</v>
+        <v>0.40681806609162546</v>
       </c>
       <c r="AI2">
-        <v>8.7857519663335193</v>
+        <v>8.7857519539473632</v>
       </c>
       <c r="AJ2">
-        <v>6.7514604495688699</v>
+        <v>6.7514604405525338</v>
       </c>
       <c r="AK2">
-        <v>2.0118902413582864</v>
+        <v>2.0118902422830689</v>
       </c>
       <c r="AL2">
-        <v>1.2325956075184099</v>
+        <v>1.2325956036492085</v>
       </c>
       <c r="AM2">
-        <v>0.15274354804086912</v>
+        <v>0.15274354883031485</v>
       </c>
       <c r="AN2">
-        <v>3.1094321916520471</v>
+        <v>3.1094321911993568</v>
       </c>
       <c r="AO2">
-        <v>3.6865096282822143</v>
+        <v>3.6865095976511051</v>
       </c>
       <c r="AP2">
-        <v>3.2732467372138037</v>
+        <v>3.2732467231486719</v>
       </c>
       <c r="AQ2">
-        <v>3.361595488372553</v>
+        <v>3.3615954877177785</v>
       </c>
       <c r="AR2">
-        <v>0.70583164428747758</v>
+        <v>0.70583165594956754</v>
       </c>
       <c r="AS2">
-        <v>-5.8316672396240055E-2</v>
+        <v>-5.831666980843029E-2</v>
       </c>
       <c r="AT2">
-        <v>0.94179959024290572</v>
+        <v>0.94179959198483043</v>
       </c>
       <c r="AU2">
-        <v>9.0466670495662385</v>
+        <v>9.0466669709262995</v>
       </c>
       <c r="AV2">
-        <v>0.96825968352555025</v>
+        <v>0.96825967377798305</v>
       </c>
       <c r="AW2">
-        <v>0.49457669776365631</v>
+        <v>0.49457669014188954</v>
       </c>
       <c r="AX2">
-        <v>0.20929401686584262</v>
+        <v>0.20929401683442683</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.8151756801320174</v>
+        <v>4.8151756817991682</v>
       </c>
       <c r="C3">
-        <v>1.2139993301255527</v>
+        <v>1.2139993300675342</v>
       </c>
       <c r="D3">
-        <v>2.989849791881102</v>
+        <v>2.9898497917993061</v>
       </c>
       <c r="E3">
-        <v>5.9293514371640725</v>
+        <v>5.9293514504210236</v>
       </c>
       <c r="F3">
-        <v>1.6641159805276671</v>
+        <v>1.6641160018949128</v>
       </c>
       <c r="G3">
-        <v>5.2076505514496052</v>
+        <v>5.2076505508707402</v>
       </c>
       <c r="H3">
-        <v>10.371739375818771</v>
+        <v>10.371739336427666</v>
       </c>
       <c r="I3">
-        <v>4.2364639800995247</v>
+        <v>4.2364639326556564</v>
       </c>
       <c r="J3">
-        <v>4.4880551007298832</v>
+        <v>4.4880550683521303</v>
       </c>
       <c r="K3">
-        <v>4.3018220367853415</v>
+        <v>4.3018220540578165</v>
       </c>
       <c r="L3">
-        <v>1.2297356197902956</v>
+        <v>1.2297356208571526</v>
       </c>
       <c r="M3">
-        <v>2.1685176802491757</v>
+        <v>2.1712352025166015</v>
       </c>
       <c r="N3">
-        <v>0.234705631628609</v>
+        <v>0.2347056316217849</v>
       </c>
       <c r="O3">
-        <v>4.6783028705389098</v>
+        <v>4.678302885769237</v>
       </c>
       <c r="P3">
-        <v>1.3744680254279704</v>
+        <v>1.3744680288769313</v>
       </c>
       <c r="Q3">
-        <v>1.4062796898014629</v>
+        <v>1.4062796886685371</v>
       </c>
       <c r="R3">
-        <v>8.177642162491475</v>
+        <v>8.1776421550476446</v>
       </c>
       <c r="S3">
-        <v>0.54664731164275226</v>
+        <v>0.54664731188228111</v>
       </c>
       <c r="T3">
-        <v>0.40702882292948511</v>
+        <v>0.40702881196548563</v>
       </c>
       <c r="U3">
-        <v>8.3834055172993374</v>
+        <v>8.3834056552912362</v>
       </c>
       <c r="V3">
-        <v>6.3206828785067577</v>
+        <v>6.3206829555366149</v>
       </c>
       <c r="W3">
-        <v>0.62438797785770561</v>
+        <v>0.62438797716151873</v>
       </c>
       <c r="X3">
-        <v>0.52403247908935702</v>
+        <v>0.52403247909810213</v>
       </c>
       <c r="Y3">
-        <v>0.79582829040025727</v>
+        <v>0.79582829437107383</v>
       </c>
       <c r="AA3">
-        <v>2.8833685803153322</v>
+        <v>2.8833685605423138</v>
       </c>
       <c r="AB3">
-        <v>4.5482420584953624</v>
+        <v>4.5482420188941068</v>
       </c>
       <c r="AC3">
-        <v>3.4081954412713196</v>
+        <v>3.4081954441906519</v>
       </c>
       <c r="AD3">
-        <v>2.2683372165781766</v>
+        <v>2.2683372366350834</v>
       </c>
       <c r="AE3">
-        <v>1.5070145871894371</v>
+        <v>1.5070145910535766</v>
       </c>
       <c r="AF3">
-        <v>1.3935434275374188</v>
+        <v>1.3935434300397136</v>
       </c>
       <c r="AG3">
-        <v>2.0979826092505318</v>
+        <v>2.0979826134156485</v>
       </c>
       <c r="AH3">
-        <v>2.5313093990574851</v>
+        <v>2.5313093983662545</v>
       </c>
       <c r="AI3">
-        <v>4.5426010599409485</v>
+        <v>4.5426010564577535</v>
       </c>
       <c r="AJ3">
-        <v>4.1242886133277574</v>
+        <v>4.1242886204419564</v>
       </c>
       <c r="AK3">
-        <v>3.3689605079757001</v>
+        <v>3.3689605087988723</v>
       </c>
       <c r="AL3">
-        <v>1.134849563712671</v>
+        <v>1.1348495647751169</v>
       </c>
       <c r="AM3">
-        <v>0.2856976930059682</v>
+        <v>0.28569769304332177</v>
       </c>
       <c r="AN3">
-        <v>2.8182187315259113</v>
+        <v>2.8182186993434706</v>
       </c>
       <c r="AO3">
-        <v>1.1854682375756389</v>
+        <v>1.1854682452322933</v>
       </c>
       <c r="AP3">
-        <v>0.55850339007498262</v>
+        <v>0.55850339021981776</v>
       </c>
       <c r="AQ3">
-        <v>1.8151636746380371</v>
+        <v>1.8151636160177205</v>
       </c>
       <c r="AR3">
-        <v>1.4704764687097616</v>
+        <v>1.4704764687456053</v>
       </c>
       <c r="AS3">
-        <v>0.5973284363032817</v>
+        <v>0.59732844331438051</v>
       </c>
       <c r="AT3">
-        <v>2.9254482119126579</v>
+        <v>2.9254482112610911</v>
       </c>
       <c r="AU3">
-        <v>8.1576699328538762</v>
+        <v>8.1576699321409532</v>
       </c>
       <c r="AV3">
-        <v>1.8075474302932706</v>
+        <v>1.8075474310426334</v>
       </c>
       <c r="AW3">
-        <v>0.64432718253697308</v>
+        <v>0.6443271822968677</v>
       </c>
       <c r="AX3">
-        <v>1.0140369787339181</v>
+        <v>1.0140369546295174</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.94438254244816233</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.60619217580534757</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>10.922400419357174</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>4.4370846798424672</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>3.5480863777083314</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.3716376668781134</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9.5540578685787398</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.6067464120525957E-2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.4965853181810562</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.5174132110283578</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.63954225512846397</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.3496663103307047</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.16989888751231966</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>6.7605279595350867</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.66350305783359553</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.8701319699692163</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.9266320298577853</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>2.6387744767390897</v>
@@ -585,55 +474,55 @@
         <v>0.37122005794079466</v>
       </c>
       <c r="AA2">
-        <v>2.2738646068687713</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.42049928991463909</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>5.0181062965191989</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.0934442974838128</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.1268198416517281</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.4767338973456638</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8.613727486823386</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.40681806609162546</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>8.7857519539473632</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.7514604405525338</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.0118902422830689</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.2325956036492085</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.15274354883031485</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.1094321911993568</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>3.6865095976511051</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.2732467231486719</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>3.3615954877177785</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.70583165594956754</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.20929401683442683</v>
       </c>
+      <c r="AY2">
+        <v>1.2581012069225597</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>4.8151756817991682</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>1.2139993300675342</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.9898497917993061</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>5.9293514504210236</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.6641160018949128</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>5.2076505508707402</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.371739336427666</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4.2364639326556564</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.4880550683521303</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.3018220540578165</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.2297356208571526</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.1712352025166015</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.2347056316217849</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.678302885769237</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.3744680288769313</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.4062796886685371</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.1776421550476446</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.54664731188228111</v>
@@ -734,55 +623,55 @@
         <v>0.79582829437107383</v>
       </c>
       <c r="AA3">
-        <v>2.8833685605423138</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.5482420188941068</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>3.4081954441906519</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.2683372366350834</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.5070145910535766</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.3935434300397136</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>2.0979826134156485</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.5313093983662545</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>4.5426010564577535</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.1242886204419564</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>3.3689605087988723</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.1348495647751169</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.28569769304332177</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.8182186993434706</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.1854682452322933</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.55850339021981776</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.8151636160177205</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.4704764687456053</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>1.0140369546295174</v>
+      </c>
+      <c r="AY3">
+        <v>2.9940660578782157</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.94438253721418308</v>
+        <v>5.2558677754913283</v>
       </c>
       <c r="C2">
-        <v>0.60619216444236945</v>
+        <v>5.9266320298577853</v>
       </c>
       <c r="D2">
-        <v>4.5747533429343923</v>
+        <v>3.1094321911993568</v>
       </c>
       <c r="E2">
-        <v>4.4370846906669135</v>
+        <v>3.3615954877177785</v>
       </c>
       <c r="F2">
         <v>3.5480863884158365</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.8151756801320174</v>
+        <v>4.678302885769237</v>
       </c>
       <c r="C3">
-        <v>1.2139993301255527</v>
+        <v>8.1776421550476446</v>
       </c>
       <c r="D3">
-        <v>2.6833330825533142</v>
+        <v>2.8182186993434706</v>
       </c>
       <c r="E3">
-        <v>5.9293514371640725</v>
+        <v>0.71005297835652481</v>
       </c>
       <c r="F3">
         <v>1.6641159805276671</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.94438253721418308</v>
-      </c>
       <c r="C2">
-        <v>0.60619216444236945</v>
+        <v>5.2558677754913283</v>
       </c>
       <c r="D2">
-        <v>4.5747533429343923</v>
+        <v>0.15274354883031485</v>
       </c>
       <c r="E2">
-        <v>4.4370846906669135</v>
+        <v>3.1094321911993568</v>
       </c>
       <c r="F2">
         <v>3.5480863884158365</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.8151756801320174</v>
+        <v>0.2347056316217849</v>
       </c>
       <c r="C3">
-        <v>1.2139993301255527</v>
+        <v>4.678302885769237</v>
       </c>
       <c r="D3">
-        <v>2.6833330825533142</v>
+        <v>0.28569769304332177</v>
       </c>
       <c r="E3">
-        <v>5.9293514371640725</v>
+        <v>2.8182186993434706</v>
       </c>
       <c r="F3">
         <v>1.6641159805276671</v>

--- a/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_sol_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.94438254244816233</v>
+      </c>
       <c r="C2">
+        <v>0.60619217580534757</v>
+      </c>
+      <c r="D2">
+        <v>4.5747533388407451</v>
+      </c>
+      <c r="E2">
+        <v>4.4370846798424672</v>
+      </c>
+      <c r="F2">
+        <v>3.5480863777083314</v>
+      </c>
+      <c r="G2">
+        <v>8.3716376668781134</v>
+      </c>
+      <c r="H2">
+        <v>9.5540578685787398</v>
+      </c>
+      <c r="I2">
+        <v>6.6067464120525957E-2</v>
+      </c>
+      <c r="J2">
+        <v>8.4965853181810562</v>
+      </c>
+      <c r="K2">
+        <v>5.5174132110283578</v>
+      </c>
+      <c r="L2">
+        <v>0.63954225512846397</v>
+      </c>
+      <c r="M2">
+        <v>2.3496663103307047</v>
+      </c>
+      <c r="O2">
         <v>5.2558677754913283</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.66350305783359553</v>
+      </c>
+      <c r="Q2">
+        <v>2.8701319699692163</v>
+      </c>
+      <c r="R2">
+        <v>5.9266320298577853</v>
+      </c>
+      <c r="S2">
+        <v>2.6387744767390897</v>
+      </c>
+      <c r="T2">
+        <v>0.50479608439508572</v>
+      </c>
+      <c r="U2">
+        <v>2.0283755062483997</v>
+      </c>
+      <c r="V2">
+        <v>13.619571741596104</v>
+      </c>
+      <c r="W2">
+        <v>2.356541133634197</v>
+      </c>
+      <c r="X2">
+        <v>0.29192440813110571</v>
+      </c>
+      <c r="Y2">
+        <v>0.37288194288710597</v>
+      </c>
+      <c r="AA2">
+        <v>2.2738646068687713</v>
+      </c>
+      <c r="AB2">
+        <v>0.42049928991463909</v>
+      </c>
+      <c r="AC2">
+        <v>5.0181062965191989</v>
+      </c>
+      <c r="AD2">
+        <v>1.0934442974838128</v>
+      </c>
+      <c r="AE2">
+        <v>1.1268198416517281</v>
+      </c>
+      <c r="AF2">
+        <v>6.4767338973456638</v>
+      </c>
+      <c r="AG2">
+        <v>8.613727486823386</v>
+      </c>
+      <c r="AH2">
+        <v>0.87611517964324315</v>
+      </c>
+      <c r="AI2">
+        <v>8.7857519539473632</v>
+      </c>
+      <c r="AJ2">
+        <v>6.7514604405525338</v>
+      </c>
+      <c r="AK2">
+        <v>2.0118902422830689</v>
+      </c>
+      <c r="AL2">
+        <v>1.2325956036492085</v>
+      </c>
+      <c r="AM2">
         <v>0.15274354883031485</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.1094321911993568</v>
       </c>
-      <c r="F2">
-        <v>3.5480863884158365</v>
-      </c>
-      <c r="G2">
-        <v>8.3716376529264025</v>
-      </c>
-      <c r="H2">
-        <v>9.5540578940922849</v>
-      </c>
-      <c r="I2">
-        <v>6.6067463093627835E-2</v>
-      </c>
-      <c r="J2">
-        <v>8.4965853163965672</v>
-      </c>
-      <c r="K2">
-        <v>5.5174132387259647</v>
-      </c>
-      <c r="L2">
-        <v>0.63954225662012587</v>
-      </c>
-      <c r="M2">
-        <v>2.3496663211464206</v>
-      </c>
-      <c r="O2">
-        <v>5.2558677749058065</v>
-      </c>
-      <c r="P2">
-        <v>0.66350305897761586</v>
-      </c>
-      <c r="Q2">
-        <v>2.8701319704791781</v>
-      </c>
-      <c r="R2">
-        <v>5.9266321990336097</v>
-      </c>
-      <c r="S2">
-        <v>2.638774453235452</v>
-      </c>
-      <c r="T2">
-        <v>0.50479609244891799</v>
-      </c>
-      <c r="U2">
-        <v>2.0283755356468798</v>
-      </c>
-      <c r="V2">
-        <v>13.619571742326356</v>
-      </c>
-      <c r="W2">
-        <v>2.3565411343718297</v>
-      </c>
-      <c r="X2">
-        <v>0.29192441330715785</v>
-      </c>
-      <c r="Y2">
-        <v>0.3728819440803664</v>
-      </c>
-      <c r="AA2">
-        <v>2.273864607724764</v>
-      </c>
-      <c r="AB2">
-        <v>0.42049929078372755</v>
-      </c>
-      <c r="AC2">
-        <v>5.0181063167549675</v>
-      </c>
-      <c r="AD2">
-        <v>1.0934442998779905</v>
-      </c>
-      <c r="AE2">
-        <v>1.1268198420142299</v>
-      </c>
-      <c r="AF2">
-        <v>6.4767338372328114</v>
-      </c>
-      <c r="AG2">
-        <v>8.6137274870816452</v>
-      </c>
-      <c r="AH2">
-        <v>0.87611517038772335</v>
-      </c>
-      <c r="AI2">
-        <v>8.7857519663335193</v>
-      </c>
-      <c r="AJ2">
-        <v>6.7514604495688699</v>
-      </c>
-      <c r="AK2">
-        <v>2.0118902413582864</v>
-      </c>
-      <c r="AL2">
-        <v>1.2325956075184099</v>
-      </c>
-      <c r="AM2">
-        <v>0.15274354804086912</v>
-      </c>
-      <c r="AN2">
-        <v>3.1094321916520471</v>
-      </c>
       <c r="AO2">
-        <v>3.6865096282822143</v>
+        <v>3.6865095976511051</v>
       </c>
       <c r="AP2">
-        <v>1.8097979446403099</v>
+        <v>1.8097978545258868</v>
       </c>
       <c r="AQ2">
-        <v>3.361595488372553</v>
+        <v>3.3615954877177785</v>
       </c>
       <c r="AR2">
-        <v>0.70583164428747758</v>
+        <v>0.70583165594956754</v>
       </c>
       <c r="AS2">
-        <v>-5.8316672396240055E-2</v>
+        <v>-5.831666980843029E-2</v>
       </c>
       <c r="AT2">
-        <v>0.94179959024290572</v>
+        <v>0.94179959198483043</v>
       </c>
       <c r="AU2">
-        <v>9.0466670495662385</v>
+        <v>9.0466669709262995</v>
       </c>
       <c r="AV2">
-        <v>0.96825968352555025</v>
+        <v>0.96825967377798305</v>
       </c>
       <c r="AW2">
-        <v>0.49457669776365631</v>
+        <v>0.49457669014188954</v>
       </c>
       <c r="AX2">
-        <v>0.20929401686584262</v>
+        <v>0.20929401683442683</v>
       </c>
       <c r="AY2">
-        <v>1.2581012069358821</v>
+        <v>1.2581012069225597</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.8151756817991682</v>
+      </c>
+      <c r="C3">
+        <v>1.2139993300675342</v>
+      </c>
+      <c r="D3">
+        <v>2.6833330828747868</v>
+      </c>
+      <c r="E3">
+        <v>5.9293514504210236</v>
+      </c>
+      <c r="F3">
+        <v>1.6641160018949128</v>
+      </c>
+      <c r="G3">
+        <v>5.2076505508707402</v>
+      </c>
+      <c r="H3">
+        <v>10.371739336427666</v>
+      </c>
+      <c r="I3">
+        <v>6.2348185620323804</v>
+      </c>
+      <c r="J3">
+        <v>4.4880550683521303</v>
+      </c>
+      <c r="K3">
+        <v>4.3018220540578165</v>
+      </c>
+      <c r="L3">
+        <v>1.2297356208571526</v>
+      </c>
+      <c r="M3">
+        <v>2.1712352025166015</v>
+      </c>
+      <c r="N3">
         <v>0.2347056316217849</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.678302885769237</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1.3744680288769313</v>
+      </c>
+      <c r="Q3">
+        <v>1.4062796886685371</v>
+      </c>
+      <c r="R3">
+        <v>8.1776421550476446</v>
+      </c>
+      <c r="S3">
+        <v>0.48628068767660643</v>
+      </c>
+      <c r="T3">
+        <v>0.31926671910053805</v>
+      </c>
+      <c r="U3">
+        <v>8.3834056552912362</v>
+      </c>
+      <c r="V3">
+        <v>6.3206829555366149</v>
+      </c>
+      <c r="W3">
+        <v>0.26467741119127919</v>
+      </c>
+      <c r="X3">
+        <v>0.52403247909810213</v>
+      </c>
+      <c r="Y3">
+        <v>0.79582829437107383</v>
+      </c>
+      <c r="AA3">
+        <v>2.8833685605423138</v>
+      </c>
+      <c r="AB3">
+        <v>4.5482420188941068</v>
+      </c>
+      <c r="AC3">
+        <v>4.308629793545113</v>
+      </c>
+      <c r="AD3">
+        <v>2.2683372366350834</v>
+      </c>
+      <c r="AE3">
+        <v>1.5070145910535766</v>
+      </c>
+      <c r="AF3">
+        <v>1.3935434300397136</v>
+      </c>
+      <c r="AG3">
+        <v>2.0979826134156485</v>
+      </c>
+      <c r="AH3">
+        <v>0.29102806417894445</v>
+      </c>
+      <c r="AI3">
+        <v>4.5426010564577535</v>
+      </c>
+      <c r="AJ3">
+        <v>4.1242886204419564</v>
+      </c>
+      <c r="AK3">
+        <v>3.3689605087988723</v>
+      </c>
+      <c r="AL3">
+        <v>1.1348495647751169</v>
+      </c>
+      <c r="AM3">
         <v>0.28569769304332177</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.8182186993434706</v>
       </c>
-      <c r="F3">
-        <v>1.6641159805276671</v>
-      </c>
-      <c r="G3">
-        <v>5.2076505514496052</v>
-      </c>
-      <c r="H3">
-        <v>10.371739375818771</v>
-      </c>
-      <c r="I3">
-        <v>6.2348186349677679</v>
-      </c>
-      <c r="J3">
-        <v>4.4880551007298832</v>
-      </c>
-      <c r="K3">
-        <v>4.3018220367853415</v>
-      </c>
-      <c r="L3">
-        <v>1.2297356197902956</v>
-      </c>
-      <c r="M3">
-        <v>2.1685176802491757</v>
-      </c>
-      <c r="N3">
-        <v>0.234705631628609</v>
-      </c>
-      <c r="O3">
-        <v>4.6783028705389098</v>
-      </c>
-      <c r="P3">
-        <v>1.3744680254279704</v>
-      </c>
-      <c r="Q3">
-        <v>1.4062796898014629</v>
-      </c>
-      <c r="R3">
-        <v>8.177642162491475</v>
-      </c>
-      <c r="S3">
-        <v>0.48628068734004537</v>
-      </c>
-      <c r="T3">
-        <v>0.31926672649773441</v>
-      </c>
-      <c r="U3">
-        <v>8.3834055172993374</v>
-      </c>
-      <c r="V3">
-        <v>6.3206828785067577</v>
-      </c>
-      <c r="W3">
-        <v>0.26467741262556171</v>
-      </c>
-      <c r="X3">
-        <v>0.52403247908935702</v>
-      </c>
-      <c r="Y3">
-        <v>0.79582829040025727</v>
-      </c>
-      <c r="AA3">
-        <v>2.8833685803153322</v>
-      </c>
-      <c r="AB3">
-        <v>4.5482420584953624</v>
-      </c>
-      <c r="AC3">
-        <v>4.30862978903395</v>
-      </c>
-      <c r="AD3">
-        <v>2.2683372165781766</v>
-      </c>
-      <c r="AE3">
-        <v>1.5070145871894371</v>
-      </c>
-      <c r="AF3">
-        <v>1.3935434275374188</v>
-      </c>
-      <c r="AG3">
-        <v>2.0979826092505318</v>
-      </c>
-      <c r="AH3">
-        <v>0.29102806418625271</v>
-      </c>
-      <c r="AI3">
-        <v>4.5426010599409485</v>
-      </c>
-      <c r="AJ3">
-        <v>4.1242886133277574</v>
-      </c>
-      <c r="AK3">
-        <v>3.3689605079757001</v>
-      </c>
-      <c r="AL3">
-        <v>1.134849563712671</v>
-      </c>
-      <c r="AM3">
-        <v>0.2856976930059682</v>
-      </c>
-      <c r="AN3">
-        <v>2.8182187315259113</v>
-      </c>
       <c r="AO3">
-        <v>1.1854682375756389</v>
+        <v>1.1854682452322933</v>
       </c>
       <c r="AP3">
-        <v>0.33935585520657596</v>
+        <v>0.33935585580864541</v>
       </c>
       <c r="AQ3">
-        <v>0.71005297916793353</v>
+        <v>0.71005297835652481</v>
       </c>
       <c r="AR3">
-        <v>1.4704764687097616</v>
+        <v>1.4704764687456053</v>
       </c>
       <c r="AS3">
-        <v>0.5973284363032817</v>
+        <v>0.59732844331438051</v>
       </c>
       <c r="AT3">
-        <v>2.9254482119126579</v>
+        <v>2.9254482112610911</v>
       </c>
       <c r="AU3">
-        <v>8.1576699328538762</v>
+        <v>8.1576699321409532</v>
       </c>
       <c r="AV3">
-        <v>1.8075474302932706</v>
+        <v>1.8075474310426334</v>
       </c>
       <c r="AW3">
-        <v>0.64432718253697308</v>
+        <v>0.6443271822968677</v>
       </c>
       <c r="AX3">
-        <v>1.0140369787339181</v>
+        <v>1.0140369546295174</v>
       </c>
       <c r="AY3">
-        <v>2.9940660566354738</v>
+        <v>2.9940660578782157</v>
       </c>
     </row>
   </sheetData>
